--- a/xlsx/联合国安全理事会否决权_intext.xlsx
+++ b/xlsx/联合国安全理事会否决权_intext.xlsx
@@ -15,365 +15,362 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="157">
   <si>
     <t>联合国安全理事会否决权</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>联合国安全理事会常任理事国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_联合国安全理事会否决权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%86%B3%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>联合国安全理事会决议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
+  </si>
+  <si>
+    <t>否决权</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%B9%B3%E8%A1%A1</t>
+  </si>
+  <si>
+    <t>权力平衡</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E6%88%90%E5%91%98%E5%9B%BD%E5%88%97%E8%A1%A8</t>
+  </si>
+  <si>
+    <t>联合国安全理事会成员国列表</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
+  </si>
+  <si>
+    <t>第二次世界大战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美利坚合众国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华民国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%BB%B4%E5%9F%83%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD%E8%81%94%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>苏维埃社会主义共和国联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%8F%8A%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD%E8%81%AF%E5%90%88%E7%8E%8B%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>大不列颠及北爱尔兰联合王国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E5%9B%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>法兰西第四共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>纳粹德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>国际联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%9B%9F%E8%BB%8D</t>
+  </si>
+  <si>
+    <t>盟军</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B3%95%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>自由法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%BA%94%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法兰西第五共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A2758%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
+  </si>
+  <si>
+    <t>联合国大会2758号决议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中华人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
+  </si>
+  <si>
+    <t>俄罗斯联邦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
+  </si>
+  <si>
+    <t>苏联</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
+  </si>
+  <si>
+    <t>苏联解体</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
+  </si>
+  <si>
+    <t>联合国宪章</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
+  </si>
+  <si>
+    <t>俄罗斯</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>英国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>法国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%9E%E5%88%87%E6%96%AF%E6%8B%89%E5%A4%AB%C2%B7%E7%B1%B3%E5%93%88%E4%BC%8A%E6%B4%9B%E7%B6%AD%E5%A5%87%C2%B7%E8%8E%AB%E6%B4%9B%E6%89%98%E5%A4%AB</t>
+  </si>
+  <si>
+    <t>维亚切斯拉夫·米哈伊洛维奇·莫洛托夫</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
+  </si>
+  <si>
+    <t>罗德西亚</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
+  </si>
+  <si>
+    <t>以色列</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
+  </si>
+  <si>
+    <t>联合国大会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BC%8A%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>美伊战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中国与联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>中华民国政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>蒙古人民共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>孟加拉国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>东巴基斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
+  </si>
+  <si>
+    <t>巴基斯坦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
+  </si>
+  <si>
+    <t>危地马拉</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>马其顿共和国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
+  </si>
+  <si>
+    <t>津巴布韦</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E5%86%85%E6%88%98</t>
+  </si>
+  <si>
+    <t>叙利亚内战</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97</t>
+  </si>
+  <si>
+    <t>科摩罗</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%84%E7%89%B9</t>
+  </si>
+  <si>
+    <t>马约特</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%AD%E6%9D%B1%E6%88%B0%E7%88%AD</t>
+  </si>
+  <si>
+    <t>第二次中东战争</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83377%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
+  </si>
+  <si>
+    <t>联合国大会377号决议</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%B7%A3%E6%94%BF%E6%B2%BB</t>
+  </si>
+  <si>
+    <t>地缘政治</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
+  </si>
+  <si>
+    <t>印度</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>德国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
+  </si>
+  <si>
+    <t>巴西</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
+  </si>
+  <si>
+    <t>四国联盟</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E4%BF%B1%E4%B9%90%E9%83%A8</t>
+  </si>
+  <si>
+    <t>咖啡俱乐部</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/Template_talk:UNSC</t>
+  </si>
+  <si>
+    <t>Template talk-UNSC</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>联合国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>联合国安全理事会</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%90%A6%E5%86%B3%E6%9D%83</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>聯合國安全理事會常任理事國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_联合国安全理事会否决权</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%86%B3%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>联合国安全理事会决议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>否決權</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%B9%B3%E8%A1%A1</t>
-  </si>
-  <si>
-    <t>權力平衡</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E6%88%90%E5%91%98%E5%9B%BD%E5%88%97%E8%A1%A8</t>
-  </si>
-  <si>
-    <t>联合国安全理事会成员国列表</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
-  </si>
-  <si>
-    <t>第二次世界大戰</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%88%A9%E5%A0%85%E5%90%88%E7%9C%BE%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美利堅合眾國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華民國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%BB%B4%E5%9F%83%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD%E8%81%94%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>苏维埃社会主义共和国联盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%B8%8D%E5%88%97%E9%A1%9B%E5%8F%8A%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD%E8%81%AF%E5%90%88%E7%8E%8B%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>大不列顛及北愛爾蘭聯合王國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%85%B0%E8%A5%BF%E7%AC%AC%E5%9B%9B%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>法兰西第四共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>納粹德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>國際聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%9F%E8%BB%8D</t>
-  </si>
-  <si>
-    <t>盟軍</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E6%B3%95%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>自由法國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%98%AD%E8%A5%BF%E7%AC%AC%E4%BA%94%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法蘭西第五共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A2758%E5%8F%B7%E5%86%B3%E8%AE%AE</t>
-  </si>
-  <si>
-    <t>联合国大会2758号决议</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華人民共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E8%81%AF%E9%82%A6</t>
-  </si>
-  <si>
-    <t>俄羅斯聯邦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF</t>
-  </si>
-  <si>
-    <t>蘇聯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%98%87%E8%81%AF%E8%A7%A3%E9%AB%94</t>
-  </si>
-  <si>
-    <t>蘇聯解體</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E6%86%B2%E7%AB%A0</t>
-  </si>
-  <si>
-    <t>聯合國憲章</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
-  </si>
-  <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>英國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>法國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%BA%9E%E5%88%87%E6%96%AF%E6%8B%89%E5%A4%AB%C2%B7%E7%B1%B3%E5%93%88%E4%BC%8A%E6%B4%9B%E7%B6%AD%E5%A5%87%C2%B7%E8%8E%AB%E6%B4%9B%E6%89%98%E5%A4%AB</t>
-  </si>
-  <si>
-    <t>維亞切斯拉夫·米哈伊洛維奇·莫洛托夫</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E8%A5%BF%E4%BA%9E</t>
-  </si>
-  <si>
-    <t>羅德西亞</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
-  </si>
-  <si>
-    <t>以色列</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83</t>
-  </si>
-  <si>
-    <t>聯合國大會</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E4%BC%8A%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>美伊戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中國與聯合國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>中華民國政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>蒙古人民共和國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%832758%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>聯合國大會2758號決議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>孟加拉国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%9C%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>东巴基斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
-  </si>
-  <si>
-    <t>巴基斯坦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
-  </si>
-  <si>
-    <t>危地马拉</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%85%B1%E5%92%8C%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>马其顿共和国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B4%A5%E5%B7%B4%E5%B8%83%E9%9F%A6</t>
-  </si>
-  <si>
-    <t>津巴布韦</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A%E5%86%85%E6%88%98</t>
-  </si>
-  <si>
-    <t>叙利亚内战</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%91%A9%E7%BD%97</t>
-  </si>
-  <si>
-    <t>科摩罗</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%B4%84%E7%89%B9</t>
-  </si>
-  <si>
-    <t>馬約特</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%AD%E6%9D%B1%E6%88%B0%E7%88%AD</t>
-  </si>
-  <si>
-    <t>第二次中東戰爭</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%A4%A7%E6%9C%83377%E8%99%9F%E6%B1%BA%E8%AD%B0</t>
-  </si>
-  <si>
-    <t>聯合國大會377號決議</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%B7%A3%E6%94%BF%E6%B2%BB</t>
-  </si>
-  <si>
-    <t>地緣政治</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E5%BA%A6</t>
-  </si>
-  <si>
-    <t>印度</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>德國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
-  </si>
-  <si>
-    <t>巴西</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E5%9C%8B%E8%81%AF%E7%9B%9F</t>
-  </si>
-  <si>
-    <t>四國聯盟</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%92%96%E5%95%A1%E4%BF%B1%E4%B9%90%E9%83%A8</t>
-  </si>
-  <si>
-    <t>咖啡俱乐部</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%B8%B8%E4%BB%BB%E7%90%86%E4%BA%8B%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国安全理事会常任理事国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:UNSC</t>
-  </si>
-  <si>
-    <t>Template talk-UNSC</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>联合国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>联合国安全理事会</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/United_Nations_Military_Observer</t>
   </si>
   <si>
@@ -419,15 +416,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E8%88%87%E8%81%AF%E5%90%88%E5%9C%8B%E9%97%9C%E4%BF%82</t>
   </si>
   <si>
-    <t>中國與聯合國關係</t>
+    <t>中国与联合国关系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94%E8%A7%A3%E4%BD%93</t>
   </si>
   <si>
-    <t>苏联解体</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
@@ -437,15 +431,9 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
   </si>
   <si>
-    <t>法国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>中华人民共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
   </si>
   <si>
@@ -461,7 +449,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E6%8B%89%E5%9C%AD</t>
@@ -473,19 +461,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%BB%E5%88%A9%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>玻利維亞</t>
+    <t>玻利维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A3%E7%B4%A2%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>衣索比亞</t>
+    <t>衣索比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E8%90%A8%E5%85%8B%E6%96%AF%E5%9D%A6</t>
@@ -498,15 +486,6 @@
   </si>
   <si>
     <t>瑞典</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E6%9C%83%E5%90%A6%E6%B1%BA%E6%AC%8A</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -855,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1921,7 +1900,7 @@
         <v>73</v>
       </c>
       <c r="F37" t="s">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1947,10 +1926,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -1976,10 +1955,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2005,10 +1984,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>5</v>
@@ -2034,10 +2013,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2063,10 +2042,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2092,10 +2071,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2121,10 +2100,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>8</v>
@@ -2150,10 +2129,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2179,10 +2158,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2237,10 +2216,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>92</v>
+      </c>
+      <c r="F48" t="s">
         <v>93</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2266,10 +2245,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2295,10 +2274,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2324,10 +2303,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>9</v>
@@ -2353,10 +2332,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>2</v>
@@ -2382,10 +2361,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2411,10 +2390,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>5</v>
@@ -2440,10 +2419,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -2469,10 +2448,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -2498,10 +2477,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>3</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2556,10 +2535,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G59" t="n">
         <v>3</v>
@@ -2585,13 +2564,13 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H60" t="s">
         <v>4</v>
@@ -2614,13 +2593,13 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H61" t="s">
         <v>4</v>
@@ -2643,13 +2622,13 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>5</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="H62" t="s">
         <v>4</v>
@@ -2672,13 +2651,13 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>6</v>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H63" t="s">
         <v>4</v>
@@ -2701,10 +2680,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2730,10 +2709,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2759,10 +2738,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2788,13 +2767,13 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H67" t="s">
         <v>4</v>
@@ -2817,13 +2796,13 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G68" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
         <v>4</v>
@@ -2846,13 +2825,13 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="F69" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="G69" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H69" t="s">
         <v>4</v>
@@ -2875,13 +2854,13 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="F70" t="s">
-        <v>132</v>
+        <v>3</v>
       </c>
       <c r="G70" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H70" t="s">
         <v>4</v>
@@ -2904,10 +2883,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="F71" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2933,10 +2912,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>133</v>
+        <v>35</v>
       </c>
       <c r="F72" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2962,10 +2941,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F73" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2991,13 +2970,13 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>134</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="s">
         <v>4</v>
@@ -3020,13 +2999,13 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="s">
         <v>4</v>
@@ -3049,13 +3028,13 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F76" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H76" t="s">
         <v>4</v>
@@ -3078,13 +3057,13 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="G77" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H77" t="s">
         <v>4</v>
@@ -3107,13 +3086,13 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="F78" t="s">
-        <v>118</v>
+        <v>38</v>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H78" t="s">
         <v>4</v>
@@ -3136,13 +3115,13 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H79" t="s">
         <v>4</v>
@@ -3165,13 +3144,13 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="F80" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="G80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H80" t="s">
         <v>4</v>
@@ -3194,10 +3173,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="F81" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3223,10 +3202,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F82" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3252,10 +3231,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="F83" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3281,10 +3260,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="F84" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3310,10 +3289,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F85" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3339,10 +3318,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="F86" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3368,10 +3347,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F87" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3397,47 +3376,18 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="F88" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G88" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H88" t="s">
         <v>4</v>
       </c>
       <c r="I88" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="s">
-        <v>0</v>
-      </c>
-      <c r="C89" t="s">
-        <v>1</v>
-      </c>
-      <c r="D89" t="n">
-        <v>88</v>
-      </c>
-      <c r="E89" t="s">
-        <v>161</v>
-      </c>
-      <c r="F89" t="s">
-        <v>163</v>
-      </c>
-      <c r="G89" t="n">
-        <v>1</v>
-      </c>
-      <c r="H89" t="s">
-        <v>4</v>
-      </c>
-      <c r="I89" t="n">
         <v>3</v>
       </c>
     </row>

--- a/xlsx/联合国安全理事会否决权_intext.xlsx
+++ b/xlsx/联合国安全理事会否决权_intext.xlsx
@@ -29,7 +29,7 @@
     <t>聯合國安全理事會常任理事國</t>
   </si>
   <si>
-    <t>政策_政策_美國_联合国安全理事会否决权</t>
+    <t>体育运动_体育运动_南非_联合国安全理事会否决权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%AE%89%E5%85%A8%E7%90%86%E4%BA%8B%E4%BC%9A%E5%86%B3%E8%AE%AE</t>
